--- a/Resources/Auxiliares4.2.xlsx
+++ b/Resources/Auxiliares4.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\source\repos\Saratyc\Saratyc\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB05040-FDD3-41B9-ADF2-45D2065DB96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37777827-4AEB-449E-AF14-955D39FBA1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="15" yWindow="0" windowWidth="11970" windowHeight="8250" xr2:uid="{B1A377E4-7B39-424E-B429-A0B36CC28E6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1A377E4-7B39-424E-B429-A0B36CC28E6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4605" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4588" uniqueCount="361">
   <si>
     <t>ID</t>
   </si>
@@ -920,82 +920,31 @@
     <t>Candelaria</t>
   </si>
   <si>
-    <t>1069078218</t>
-  </si>
-  <si>
-    <t>1071629228</t>
-  </si>
-  <si>
-    <t>1116794759</t>
-  </si>
-  <si>
-    <t>20964966</t>
-  </si>
-  <si>
-    <t>24212282</t>
-  </si>
-  <si>
-    <t>25874713</t>
-  </si>
-  <si>
-    <t>28689301</t>
-  </si>
-  <si>
-    <t>30333182</t>
-  </si>
-  <si>
-    <t>30724286</t>
-  </si>
-  <si>
-    <t>34941725</t>
-  </si>
-  <si>
-    <t>39722971</t>
-  </si>
-  <si>
     <t>41796003</t>
   </si>
   <si>
     <t>51637213</t>
   </si>
   <si>
-    <t>51754883</t>
-  </si>
-  <si>
     <t>51945060</t>
   </si>
   <si>
     <t>52066498</t>
   </si>
   <si>
-    <t>52194402</t>
-  </si>
-  <si>
     <t>56096893</t>
   </si>
   <si>
-    <t>80190427</t>
-  </si>
-  <si>
     <t>900564173</t>
   </si>
   <si>
-    <t>1093413850</t>
-  </si>
-  <si>
     <t>53094338</t>
   </si>
   <si>
-    <t>1193215355</t>
-  </si>
-  <si>
     <t>1024514760</t>
   </si>
   <si>
     <t>38288683</t>
-  </si>
-  <si>
-    <t>52161328</t>
   </si>
   <si>
     <t>YESENIA JOSEFINA</t>
@@ -1527,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237A181E-7132-4752-ADB5-A8A3B5316EFF}">
   <dimension ref="A1:GQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BO1" sqref="BO1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,10 +2287,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="D2">
         <v>4790597</v>
@@ -2937,10 +2886,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="D3">
         <v>1019014407</v>
@@ -3536,10 +3485,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D4">
         <v>1022331742</v>
@@ -4135,13 +4084,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D5" t="s">
-        <v>293</v>
+        <v>334</v>
+      </c>
+      <c r="D5">
+        <v>1069078218</v>
       </c>
       <c r="E5" s="1">
         <v>36579</v>
@@ -4734,13 +4683,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
-        <v>352</v>
-      </c>
-      <c r="D6" t="s">
-        <v>294</v>
+        <v>335</v>
+      </c>
+      <c r="D6">
+        <v>1071629228</v>
       </c>
       <c r="E6" s="1">
         <v>22095</v>
@@ -5333,13 +5282,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C7" t="s">
-        <v>353</v>
-      </c>
-      <c r="D7" t="s">
-        <v>295</v>
+        <v>336</v>
+      </c>
+      <c r="D7">
+        <v>1116794759</v>
       </c>
       <c r="E7" s="1">
         <v>21447</v>
@@ -5932,13 +5881,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
-        <v>354</v>
-      </c>
-      <c r="D8" t="s">
-        <v>296</v>
+        <v>337</v>
+      </c>
+      <c r="D8">
+        <v>20964966</v>
       </c>
       <c r="E8" s="1">
         <v>25511</v>
@@ -6531,10 +6480,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="C9" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="D9">
         <v>23415801</v>
@@ -7130,13 +7079,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C10" t="s">
-        <v>356</v>
-      </c>
-      <c r="D10" t="s">
-        <v>297</v>
+        <v>339</v>
+      </c>
+      <c r="D10">
+        <v>24212282</v>
       </c>
       <c r="E10" s="1">
         <v>27943</v>
@@ -7729,13 +7678,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C11" t="s">
-        <v>357</v>
-      </c>
-      <c r="D11" t="s">
-        <v>298</v>
+        <v>340</v>
+      </c>
+      <c r="D11">
+        <v>25874713</v>
       </c>
       <c r="E11" s="1">
         <v>26350</v>
@@ -8328,13 +8277,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C12" t="s">
-        <v>358</v>
-      </c>
-      <c r="D12" t="s">
-        <v>299</v>
+        <v>341</v>
+      </c>
+      <c r="D12">
+        <v>28689301</v>
       </c>
       <c r="E12" s="1">
         <v>31619</v>
@@ -8927,13 +8876,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C13" t="s">
-        <v>359</v>
-      </c>
-      <c r="D13" t="s">
-        <v>300</v>
+        <v>342</v>
+      </c>
+      <c r="D13">
+        <v>30333182</v>
       </c>
       <c r="E13" s="1">
         <v>35066</v>
@@ -9526,13 +9475,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C14" t="s">
-        <v>360</v>
-      </c>
-      <c r="D14" t="s">
-        <v>301</v>
+        <v>343</v>
+      </c>
+      <c r="D14">
+        <v>30724286</v>
       </c>
       <c r="E14" s="1">
         <v>26109</v>
@@ -10125,13 +10074,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C15" t="s">
-        <v>361</v>
-      </c>
-      <c r="D15" t="s">
-        <v>302</v>
+        <v>344</v>
+      </c>
+      <c r="D15">
+        <v>34941725</v>
       </c>
       <c r="E15" s="1">
         <v>34170</v>
@@ -10724,13 +10673,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="C16" t="s">
-        <v>362</v>
-      </c>
-      <c r="D16" t="s">
-        <v>303</v>
+        <v>345</v>
+      </c>
+      <c r="D16">
+        <v>39722971</v>
       </c>
       <c r="E16" s="1">
         <v>24640</v>
@@ -11323,13 +11272,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C17" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E17" s="1">
         <v>23387</v>
@@ -11922,13 +11871,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C18" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="D18" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E18" s="1">
         <v>26862</v>
@@ -12521,13 +12470,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D19" t="s">
-        <v>306</v>
+        <v>348</v>
+      </c>
+      <c r="D19">
+        <v>51754883</v>
       </c>
       <c r="E19" s="1">
         <v>29450</v>
@@ -13120,13 +13069,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C20" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="D20" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E20" s="1">
         <v>21943</v>
@@ -13719,13 +13668,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="C21" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="D21" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E21" s="1">
         <v>24638</v>
@@ -14318,13 +14267,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="C22" t="s">
-        <v>368</v>
-      </c>
-      <c r="D22" t="s">
-        <v>309</v>
+        <v>351</v>
+      </c>
+      <c r="D22">
+        <v>52194402</v>
       </c>
       <c r="E22" s="1">
         <v>34977</v>
@@ -14917,13 +14866,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C23" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="D23" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="E23" s="1">
         <v>33619</v>
@@ -15516,13 +15465,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="C24" t="s">
-        <v>370</v>
-      </c>
-      <c r="D24" t="s">
-        <v>311</v>
+        <v>353</v>
+      </c>
+      <c r="D24">
+        <v>80190427</v>
       </c>
       <c r="E24" s="1">
         <v>30509</v>
@@ -16115,13 +16064,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="C25" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="D25" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E25" s="1">
         <v>29141</v>
@@ -16714,13 +16663,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="C26" t="s">
-        <v>372</v>
-      </c>
-      <c r="D26" t="s">
-        <v>313</v>
+        <v>355</v>
+      </c>
+      <c r="D26">
+        <v>1093413850</v>
       </c>
       <c r="E26" s="1">
         <v>29874</v>
@@ -17313,13 +17262,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C27" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D27" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="E27" s="1">
         <v>35984</v>
@@ -17912,13 +17861,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C28" t="s">
-        <v>374</v>
-      </c>
-      <c r="D28" t="s">
-        <v>315</v>
+        <v>357</v>
+      </c>
+      <c r="D28">
+        <v>1193215355</v>
       </c>
       <c r="E28" s="1">
         <v>36787</v>
@@ -18511,13 +18460,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="C29" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="D29" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="E29" s="1">
         <v>36445</v>
@@ -19110,13 +19059,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="C30" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="D30" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="E30" s="1">
         <v>29790</v>
@@ -19709,13 +19658,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C31" t="s">
-        <v>377</v>
-      </c>
-      <c r="D31" t="s">
-        <v>318</v>
+        <v>360</v>
+      </c>
+      <c r="D31">
+        <v>52161328</v>
       </c>
       <c r="E31" s="1">
         <v>24299</v>
